--- a/medicine/Enfance/Entreprise_de_garde_d'enfants/Entreprise_de_garde_d'enfants.xlsx
+++ b/medicine/Enfance/Entreprise_de_garde_d'enfants/Entreprise_de_garde_d'enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entreprise_de_garde_d%27enfants</t>
+          <t>Entreprise_de_garde_d'enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, avec l'explosion du marché des services à la personne, la garde d'enfants est le 2e marché pour les entreprises de ce secteur après le ménage à domicile et avant le soutien scolaire et l'aide aux personnes dites fragiles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, avec l'explosion du marché des services à la personne, la garde d'enfants est le 2e marché pour les entreprises de ce secteur après le ménage à domicile et avant le soutien scolaire et l'aide aux personnes dites fragiles.
 De ce fait, ce secteur structuré est largement devant le monde associatif en termes de nombres d'acteurs[réf. nécessaire].
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entreprise_de_garde_d%27enfants</t>
+          <t>Entreprise_de_garde_d'enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Catégories d'entreprise de garde d'enfants en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entreprises ayant l'agrément simple :
 Cet agrément est obligatoire pour toutes les entreprises souhaitant exercer dans la garde d'enfants à domicile. Il est délivré par la direction départementale du travail à toute société qui déclare se plier aux exigences de l’article L129 du code du travail (relatif aux services à la personne), et fournir à l’administration des statistiques d’activité mensuelles et annuelles. Sa portée peut être nationale, même si l’organisme (association ou entreprise) n’a pas d’agence physique.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entreprise_de_garde_d%27enfants</t>
+          <t>Entreprise_de_garde_d'enfants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +564,15 @@
           <t>Mode de fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces entreprises fonctionnent de deux manières distinctes : 
-Les prestataires[2]
+Les prestataires
 L’organisme qui intervient est employeur du personnel, vous n’avez ni le statut, ni les contraintes, ni la responsabilité, ni le devoir d’assurance, ni les démarches administratives de l’employeur. Tout est pris en charge, vous ordonnez les services, vous les résiliez, vous les organisez dans le temps … librement. Même si le client n'a donc pas officiellement son mot à dire dans le recrutement du personnel (cette charge étant du côté du prestataire), l'usage veut que le client valide l'intervenant(e) proposé(e)
 Attention du fait des charges de gestion de personnels, de gestion administratives, ... le coût est supérieur au mode mandataire.
-Les mandataires[3]
+Les mandataires
 Le client est l’employeur, l’organisme est rémunéré pour la présentation de candidat(e)s, la prise en charge des démarches administratives (contrat de travail, convention collective, questions de droit, procédures en cas de licenciement ou de démission, ...) ainsi que pour assurer les garanties de remplacement en cas de maladie, de départ ou de démission. À ce titre son fonctionnement est souvent proche de celui du prestataire car il fonctionne comme s'il était l'employeur.
 Attention donc à ce que les garanties de remplacement ne soient ni limitatives ni sur la durée, ni sur le motif et que les formules proposées ne présentent pas de coûts cachés ultérieurs. C'est le client qui assume le risque social (prud'hommes), il est donc essentiel de choisir une structure dont la prise en charge vous assure un conseil de qualité.
 En contrepartie, la rémunération des salariées est le plus généralement définie sur une base équivalente ou voisine du SMIC conventionnel, ce qui représente une économie annuelle très importante pour les familles. Dans ce mode de fonctionnement les familles bénéficient également directement des exonérations de cotisations sociales ainsi que des aides de la CAF et du crédit d'impôt relatif à l'emploi d'un salarié à domicile. Plus le volume horaire travaillé est important et plus grande est l'économie réalisée par les familles en mode mandataire. Pour des questions économiques de coût pour les familles, il s'agit là du mode de fonctionnement historique des agences spécialisées en placement de gardes d'enfants à domicile.
